--- a/BooksWagon_Website/src/test/resources/TestData/testdata.xlsx
+++ b/BooksWagon_Website/src/test/resources/TestData/testdata.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A5017EA0-7EC5-416E-BC98-18B17CE7E5ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="2040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="2040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -42,12 +40,24 @@
   </si>
   <si>
     <t>crossword@123</t>
+  </si>
+  <si>
+    <t>komsragi@gmail.com</t>
+  </si>
+  <si>
+    <t>koms@1</t>
+  </si>
+  <si>
+    <t>komalavalli1998@gmail.com</t>
+  </si>
+  <si>
+    <t>koms@2905</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,23 +387,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -415,36 +425,83 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>9876543210</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="2">
         <v>4132255845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7490329992</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4124959590</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9479200294</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4132342341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>6392295295</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4123399404</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" display="ragiboo@09" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{173B261D-10A9-49A1-926C-9678DBB9315B}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{65257195-9A91-4CBE-B49D-BA7346EA6F79}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2" display="ragiboo@09"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="B3" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>